--- a/data/outputs/management_altmetric/80.xlsx
+++ b/data/outputs/management_altmetric/80.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE40"/>
+  <dimension ref="A1:CF40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1017,6 +1022,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1252,6 +1260,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1489,6 +1500,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1732,6 +1746,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1980,6 +1997,9 @@
       </c>
       <c r="CE6" t="n">
         <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -2222,6 +2242,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2467,6 +2490,9 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2704,6 +2730,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2939,6 +2968,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3180,6 +3212,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3424,6 +3459,9 @@
       </c>
       <c r="CE12" t="n">
         <v>0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
@@ -3656,6 +3694,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3895,6 +3936,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4131,6 +4175,9 @@
       </c>
       <c r="CE15" t="n">
         <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -4365,6 +4412,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4596,6 +4646,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4837,6 +4890,9 @@
         <v>0</v>
       </c>
       <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5070,6 +5126,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5311,6 +5370,9 @@
         <v>0</v>
       </c>
       <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5550,6 +5612,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>92.2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5793,6 +5858,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6030,6 +6098,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6267,6 +6338,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6504,6 +6578,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6739,6 +6816,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6974,6 +7054,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7209,6 +7292,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7446,6 +7532,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7689,6 +7778,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7928,6 +8020,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8155,6 +8250,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8394,6 +8492,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8635,6 +8736,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8883,6 +8987,9 @@
       </c>
       <c r="CE35" t="n">
         <v>0</v>
+      </c>
+      <c r="CF35" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="36">
@@ -9119,6 +9226,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9358,6 +9468,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9603,6 +9716,9 @@
         <v>0</v>
       </c>
       <c r="CE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9842,6 +9958,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10095,6 +10214,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
